--- a/kensho/reverse_20180506.xlsx
+++ b/kensho/reverse_20180506.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\reverse\oanda_dev\kensho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\reverse_logic\oanda_dev\kensho\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6138,11 +6138,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="214222320"/>
-        <c:axId val="214306776"/>
+        <c:axId val="295944696"/>
+        <c:axId val="295945088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="214222320"/>
+        <c:axId val="295944696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6185,14 +6185,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214306776"/>
+        <c:crossAx val="295945088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="214306776"/>
+        <c:axId val="295945088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6243,7 +6243,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214222320"/>
+        <c:crossAx val="295944696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7148,8 +7148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="J512" sqref="J512"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
